--- a/2018 Pick Order.xlsx
+++ b/2018 Pick Order.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="80" windowWidth="19140" windowHeight="7340" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="80" windowWidth="19140" windowHeight="7340" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="155">
   <si>
     <t>C</t>
   </si>
@@ -1344,7 +1344,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="46" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="46" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="34.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="23" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="46" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="23" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="46" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="23" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="46" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="46" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -2906,8 +2906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2936,14 +2936,14 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="str">
-        <f>"Round " &amp; ROW()</f>
-        <v>Round 2</v>
+        <f>"Round " &amp; ROW()-1</f>
+        <v>Round 1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
@@ -2954,19 +2954,19 @@
       </c>
       <c r="G2">
         <f>COUNTIF(C:C,"=RW")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="str">
-        <f t="shared" ref="A3:A22" si="0">"Round " &amp; ROW()</f>
-        <v>Round 3</v>
+        <f t="shared" ref="A3:A22" si="0">"Round " &amp; ROW()-1</f>
+        <v>Round 2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
@@ -2977,13 +2977,13 @@
       </c>
       <c r="G3">
         <f>COUNTIF(C:C,"=LW")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
-        <v>Round 4</v>
+        <v>Round 3</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -3000,19 +3000,19 @@
       </c>
       <c r="G4">
         <f>COUNTIF(C:C,"=C")</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
-        <v>Round 5</v>
+        <v>Round 4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
@@ -3029,7 +3029,7 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
-        <v>Round 6</v>
+        <v>Round 5</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -3052,7 +3052,7 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
-        <v>Round 7</v>
+        <v>Round 6</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -3064,7 +3064,7 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
-        <v>Round 8</v>
+        <v>Round 7</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -3076,22 +3076,22 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
-        <v>Round 9</v>
+        <v>Round 8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
-        <v>Round 10</v>
+        <v>Round 9</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
@@ -3100,7 +3100,7 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
-        <v>Round 11</v>
+        <v>Round 10</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -3112,10 +3112,10 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
-        <v>Round 12</v>
+        <v>Round 11</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
@@ -3124,7 +3124,7 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
-        <v>Round 13</v>
+        <v>Round 12</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
@@ -3136,76 +3136,64 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
-        <v>Round 14</v>
+        <v>Round 13</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
-        <v>Round 15</v>
+        <v>Round 14</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
-        <v>Round 16</v>
+        <v>Round 15</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
-        <v>Round 17</v>
-      </c>
-      <c r="C17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+        <v>Round 16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
-        <v>Round 18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+        <v>Round 17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
-        <v>Round 19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+        <v>Round 18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
-        <v>Round 20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+        <v>Round 19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
-        <v>Round 21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+        <v>Round 20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
-        <v>Round 22</v>
+        <v>Round 21</v>
       </c>
     </row>
   </sheetData>
@@ -3217,7 +3205,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -3393,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -3429,7 +3417,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -3441,7 +3429,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -3453,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">

--- a/2018 Pick Order.xlsx
+++ b/2018 Pick Order.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="80" windowWidth="19140" windowHeight="7340" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="80" windowWidth="19140" windowHeight="7340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="155">
   <si>
     <t>C</t>
   </si>
@@ -1261,8 +1261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2906,8 +2906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2954,7 +2954,7 @@
       </c>
       <c r="G2">
         <f>COUNTIF(C:C,"=RW")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -2977,7 +2977,7 @@
       </c>
       <c r="G3">
         <f>COUNTIF(C:C,"=LW")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -3000,7 +3000,7 @@
       </c>
       <c r="G4">
         <f>COUNTIF(C:C,"=C")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -3023,7 +3023,7 @@
       </c>
       <c r="G5">
         <f>COUNTIF(C:C,"=D")</f>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -3034,9 +3034,6 @@
       <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
       <c r="E6" t="s">
         <v>4</v>
       </c>
@@ -3057,9 +3054,6 @@
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
@@ -3069,9 +3063,6 @@
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
@@ -3081,9 +3072,6 @@
       <c r="B9" t="s">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
@@ -3093,9 +3081,6 @@
       <c r="B10" t="s">
         <v>0</v>
       </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
@@ -3105,9 +3090,6 @@
       <c r="B11" t="s">
         <v>1</v>
       </c>
-      <c r="C11" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
@@ -3117,9 +3099,6 @@
       <c r="B12" t="s">
         <v>2</v>
       </c>
-      <c r="C12" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
@@ -3128,9 +3107,6 @@
       </c>
       <c r="B13" t="s">
         <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
